--- a/biology/Botanique/Prosopis_juliflora/Prosopis_juliflora.xlsx
+++ b/biology/Botanique/Prosopis_juliflora/Prosopis_juliflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prosopis juliflora est un buisson ou un arbuste de la sous-famille des Mimosoideae originaire du Mexique, d'Amérique du Sud et des Caraïbes.
 Nom commun : Bayahonde. "Au-dessus des bayahondes flottent des haillons de fumée...", Jacques Roumain, Gouverneurs de la rosée, 1946.
-En Europe, Prosopis juliflora est inscrite depuis 2019 dans la liste des espèces exotiques envahissantes préoccupantes pour l’Union européenne[1]. Cela signifie qu'elle ne peut pas être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne[2].
+En Europe, Prosopis juliflora est inscrite depuis 2019 dans la liste des espèces exotiques envahissantes préoccupantes pour l’Union européenne. Cela signifie qu'elle ne peut pas être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre peut atteindre 12 m de hauteur et son tronc peut dépasser 1,2 m de diamètre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre peut atteindre 12 m de hauteur et son tronc peut dépasser 1,2 m de diamètre.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son utilisation comprend le fourrage, le bois et la gestion de l'environnement (lutte contre la désertification, stabilisation de dunes...)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son utilisation comprend le fourrage, le bois et la gestion de l'environnement (lutte contre la désertification, stabilisation de dunes...).
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Introductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été introduit en Asie, Australie, en Afrique et ailleurs.
-Très résistant à la sécheresse, il a été introduit au Sahel pour cette raison, et il y est devenu une plante envahissante, de même que'au Kenya et dans d'autres pays où les allergies à son pollen sont apparues et se sont multipliées[5].
-Prosopis juliflora contribue à la transmission du paludisme, en particulier pendant les périodes sèches où les sources de sucre des plantes indigènes sont largement indisponibles pour les moustiques[6].
+Très résistant à la sécheresse, il a été introduit au Sahel pour cette raison, et il y est devenu une plante envahissante, de même que'au Kenya et dans d'autres pays où les allergies à son pollen sont apparues et se sont multipliées.
+Prosopis juliflora contribue à la transmission du paludisme, en particulier pendant les périodes sèches où les sources de sucre des plantes indigènes sont largement indisponibles pour les moustiques.
 </t>
         </is>
       </c>
